--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value539.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value539.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163264684039256</v>
+        <v>1.831729054450989</v>
       </c>
       <c r="B1">
-        <v>1.162602888119294</v>
+        <v>2.3274986743927</v>
       </c>
       <c r="C1">
-        <v>1.202629692378029</v>
+        <v>2.469321727752686</v>
       </c>
       <c r="D1">
-        <v>1.607504944588219</v>
+        <v>2.933242559432983</v>
       </c>
       <c r="E1">
-        <v>2.739962592192771</v>
+        <v>1.998267769813538</v>
       </c>
     </row>
   </sheetData>
